--- a/data/2010 IP MASTERLIST.xlsx
+++ b/data/2010 IP MASTERLIST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\ip_dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7A485B4-E88C-4DF9-BE14-2D6034CA8289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F57C0-E331-40CD-8D58-F36C356005B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="140">
   <si>
     <t>IPRO file number</t>
   </si>
@@ -250,12 +250,6 @@
     <t>2010-Bnr-02</t>
   </si>
   <si>
-    <t>Crop Science 12: Practices of Crop Production (Lecture Manual)</t>
-  </si>
-  <si>
-    <t>978-971-006-029-0</t>
-  </si>
-  <si>
     <t>2010-Br-03</t>
   </si>
   <si>
@@ -265,12 +259,6 @@
     <t>2010-Bnr-03</t>
   </si>
   <si>
-    <t>Crop Science 12: Practices of Crop Production (Laboratory Manual)</t>
-  </si>
-  <si>
-    <t>978-971-006-025-2</t>
-  </si>
-  <si>
     <t>2010-Br-04</t>
   </si>
   <si>
@@ -283,12 +271,6 @@
     <t>2010-Bnr-04</t>
   </si>
   <si>
-    <t>Animal Science II: Introduction to Animal Science (Lecture Manual)</t>
-  </si>
-  <si>
-    <t>978-971-006-028-3</t>
-  </si>
-  <si>
     <t>2010-Br-05</t>
   </si>
   <si>
@@ -316,9 +298,6 @@
     <t>Fishes, Shells and other related Species and their Habitat in Benguet</t>
   </si>
   <si>
-    <t>Erlinda C. bestre, Arsenia M. Lumiquio</t>
-  </si>
-  <si>
     <t>978-971-006-012-2</t>
   </si>
   <si>
@@ -406,9 +385,6 @@
     <t>Development of Processing and Table Potatoes for the Philippine Islands</t>
   </si>
   <si>
-    <t>Ines C. Gonzales et. al</t>
-  </si>
-  <si>
     <t>978-971-006-007-8</t>
   </si>
   <si>
@@ -448,9 +424,6 @@
     <t>Process of Producing Fungal Biopesticide Carrier</t>
   </si>
   <si>
-    <t xml:space="preserve">Masangcay, Teresita D., Villanueva, Luciana M., Pedroche, Nordalyn C. </t>
-  </si>
-  <si>
     <t>Public Domain</t>
   </si>
   <si>
@@ -464,6 +437,24 @@
   </si>
   <si>
     <t>IMs</t>
+  </si>
+  <si>
+    <t>Ines C. Gonzales et. Al</t>
+  </si>
+  <si>
+    <t>978-971-006-024-6</t>
+  </si>
+  <si>
+    <t>978-971-006-024-7</t>
+  </si>
+  <si>
+    <t>978-971-006-024-8</t>
+  </si>
+  <si>
+    <t>Erlinda C. Bestre, Arsenia M. Lumiquio</t>
+  </si>
+  <si>
+    <t>Teresita D. Masangcay, Luciana M. Villanueva, Nordalyn C. Pedroche</t>
   </si>
 </sst>
 </file>
@@ -474,7 +465,7 @@
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -499,6 +490,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -866,9 +863,9 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -887,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -1113,7 +1110,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
@@ -1141,7 +1138,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="9" t="s">
@@ -1168,7 +1165,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9" t="s">
@@ -1195,7 +1192,7 @@
         <v>34</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9" t="s">
@@ -1222,7 +1219,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="9" t="s">
@@ -1249,7 +1246,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9" t="s">
@@ -1276,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
@@ -1311,8 +1308,8 @@
   <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1327,12 +1324,12 @@
     <col min="9" max="9" width="12.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>1</v>
@@ -1356,7 +1353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
@@ -1383,7 +1380,7 @@
         <v>40248</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>67</v>
       </c>
@@ -1410,9 +1407,9 @@
         <v>40248</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>60</v>
@@ -1431,15 +1428,15 @@
         <v>40248</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="18">
+        <v>40248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="I4" s="18">
-        <v>40248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>60</v>
@@ -1449,7 +1446,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>11</v>
@@ -1458,22 +1455,22 @@
         <v>40248</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I5" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>55</v>
@@ -1485,25 +1482,25 @@
         <v>40248</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I6" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>11</v>
@@ -1512,25 +1509,25 @@
         <v>40248</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I7" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>11</v>
@@ -1539,25 +1536,25 @@
         <v>40248</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I8" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>11</v>
@@ -1566,25 +1563,25 @@
         <v>40248</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I9" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>11</v>
@@ -1593,25 +1590,25 @@
         <v>40248</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="I10" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>11</v>
@@ -1620,25 +1617,25 @@
         <v>40248</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="I11" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>11</v>
@@ -1647,25 +1644,25 @@
         <v>40248</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I12" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>11</v>
@@ -1674,25 +1671,25 @@
         <v>40248</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I13" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>11</v>
@@ -1701,18 +1698,18 @@
         <v>40248</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="I14" s="18">
         <v>40248</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="9" t="s">
@@ -1734,16 +1731,16 @@
         <v>40399</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="103.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>15</v>
@@ -1752,25 +1749,25 @@
         <v>11</v>
       </c>
       <c r="G16" s="22">
-        <v>40399</v>
+        <v>40400</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="I16" s="22">
-        <v>40399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>15</v>
@@ -1779,55 +1776,55 @@
         <v>11</v>
       </c>
       <c r="G17" s="22">
-        <v>40399</v>
+        <v>40401</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="22">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="22">
-        <v>40399</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="B18" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="9" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="22">
-        <v>40399</v>
+        <v>40402</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="I18" s="22">
-        <v>40399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C19" s="22"/>
       <c r="D19" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>11</v>
@@ -1836,22 +1833,22 @@
         <v>40399</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I19" s="22">
         <v>40399</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>51</v>
@@ -1863,7 +1860,7 @@
         <v>40399</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I20" s="22">
         <v>40399</v>
@@ -1871,14 +1868,14 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C21" s="22"/>
       <c r="D21" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>51</v>
@@ -1890,119 +1887,120 @@
         <v>40399</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I21" s="22">
         <v>40399</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25"/>
-    <row r="33" x14ac:dyDescent="0.25"/>
-    <row r="34" x14ac:dyDescent="0.25"/>
-    <row r="35" x14ac:dyDescent="0.25"/>
-    <row r="36" x14ac:dyDescent="0.25"/>
-    <row r="37" x14ac:dyDescent="0.25"/>
-    <row r="38" x14ac:dyDescent="0.25"/>
-    <row r="39" x14ac:dyDescent="0.25"/>
-    <row r="40" x14ac:dyDescent="0.25"/>
-    <row r="41" x14ac:dyDescent="0.25"/>
-    <row r="42" x14ac:dyDescent="0.25"/>
-    <row r="43" x14ac:dyDescent="0.25"/>
-    <row r="44" x14ac:dyDescent="0.25"/>
-    <row r="45" x14ac:dyDescent="0.25"/>
-    <row r="46" x14ac:dyDescent="0.25"/>
-    <row r="47" x14ac:dyDescent="0.25"/>
-    <row r="48" x14ac:dyDescent="0.25"/>
-    <row r="49" x14ac:dyDescent="0.25"/>
-    <row r="50" x14ac:dyDescent="0.25"/>
-    <row r="51" x14ac:dyDescent="0.25"/>
-    <row r="52" x14ac:dyDescent="0.25"/>
-    <row r="53" x14ac:dyDescent="0.25"/>
-    <row r="54" x14ac:dyDescent="0.25"/>
-    <row r="55" x14ac:dyDescent="0.25"/>
-    <row r="56" x14ac:dyDescent="0.25"/>
-    <row r="57" x14ac:dyDescent="0.25"/>
-    <row r="58" x14ac:dyDescent="0.25"/>
-    <row r="59" x14ac:dyDescent="0.25"/>
-    <row r="60" x14ac:dyDescent="0.25"/>
-    <row r="61" x14ac:dyDescent="0.25"/>
-    <row r="62" x14ac:dyDescent="0.25"/>
-    <row r="63" x14ac:dyDescent="0.25"/>
-    <row r="64" x14ac:dyDescent="0.25"/>
-    <row r="65" x14ac:dyDescent="0.25"/>
-    <row r="66" x14ac:dyDescent="0.25"/>
-    <row r="67" x14ac:dyDescent="0.25"/>
-    <row r="68" x14ac:dyDescent="0.25"/>
-    <row r="69" x14ac:dyDescent="0.25"/>
-    <row r="70" x14ac:dyDescent="0.25"/>
-    <row r="71" x14ac:dyDescent="0.25"/>
-    <row r="72" x14ac:dyDescent="0.25"/>
-    <row r="73" x14ac:dyDescent="0.25"/>
-    <row r="74" x14ac:dyDescent="0.25"/>
-    <row r="75" x14ac:dyDescent="0.25"/>
-    <row r="76" x14ac:dyDescent="0.25"/>
-    <row r="77" x14ac:dyDescent="0.25"/>
-    <row r="78" x14ac:dyDescent="0.25"/>
-    <row r="79" x14ac:dyDescent="0.25"/>
-    <row r="80" x14ac:dyDescent="0.25"/>
-    <row r="81" x14ac:dyDescent="0.25"/>
-    <row r="82" x14ac:dyDescent="0.25"/>
-    <row r="83" x14ac:dyDescent="0.25"/>
-    <row r="84" x14ac:dyDescent="0.25"/>
-    <row r="85" x14ac:dyDescent="0.25"/>
-    <row r="86" x14ac:dyDescent="0.25"/>
-    <row r="87" x14ac:dyDescent="0.25"/>
-    <row r="88" x14ac:dyDescent="0.25"/>
-    <row r="89" x14ac:dyDescent="0.25"/>
-    <row r="90" x14ac:dyDescent="0.25"/>
-    <row r="91" x14ac:dyDescent="0.25"/>
-    <row r="92" x14ac:dyDescent="0.25"/>
-    <row r="93" x14ac:dyDescent="0.25"/>
-    <row r="94" x14ac:dyDescent="0.25"/>
-    <row r="95" x14ac:dyDescent="0.25"/>
-    <row r="96" x14ac:dyDescent="0.25"/>
-    <row r="97" x14ac:dyDescent="0.25"/>
-    <row r="98" x14ac:dyDescent="0.25"/>
-    <row r="99" x14ac:dyDescent="0.25"/>
-    <row r="100" x14ac:dyDescent="0.25"/>
-    <row r="101" x14ac:dyDescent="0.25"/>
-    <row r="102" x14ac:dyDescent="0.25"/>
-    <row r="103" x14ac:dyDescent="0.25"/>
-    <row r="104" x14ac:dyDescent="0.25"/>
-    <row r="105" x14ac:dyDescent="0.25"/>
-    <row r="106" x14ac:dyDescent="0.25"/>
-    <row r="107" x14ac:dyDescent="0.25"/>
-    <row r="108" x14ac:dyDescent="0.25"/>
-    <row r="109" x14ac:dyDescent="0.25"/>
-    <row r="110" x14ac:dyDescent="0.25"/>
-    <row r="111" x14ac:dyDescent="0.25"/>
-    <row r="112" x14ac:dyDescent="0.25"/>
-    <row r="113" x14ac:dyDescent="0.25"/>
-    <row r="114" x14ac:dyDescent="0.25"/>
-    <row r="115" x14ac:dyDescent="0.25"/>
-    <row r="116" x14ac:dyDescent="0.25"/>
-    <row r="117" x14ac:dyDescent="0.25"/>
-    <row r="118" x14ac:dyDescent="0.25"/>
-    <row r="119" x14ac:dyDescent="0.25"/>
-    <row r="120" x14ac:dyDescent="0.25"/>
-    <row r="121" x14ac:dyDescent="0.25"/>
-    <row r="122" x14ac:dyDescent="0.25"/>
-    <row r="123" x14ac:dyDescent="0.25"/>
-    <row r="124" x14ac:dyDescent="0.25"/>
-    <row r="125" x14ac:dyDescent="0.25"/>
-    <row r="126" x14ac:dyDescent="0.25"/>
-    <row r="127" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:9" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2015,8 +2013,8 @@
   </sheetPr>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2033,13 +2031,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>3</v>
@@ -2051,34 +2049,34 @@
         <v>5</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D2" s="14">
         <v>22010000111</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="G2" s="24">
         <v>40259</v>
@@ -2086,10 +2084,10 @@
       <c r="H2" s="15"/>
       <c r="I2" s="13"/>
       <c r="J2" s="16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
